--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/2024_AcidDigestion_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/2024_AcidDigestion_EDI.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D457970A-417B-2444-A6D5-18D08D9D43C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B00ADB-4C81-824A-959A-1FE0472077CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17900" xr2:uid="{434214BE-E321-C845-9094-3C530F89F099}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{434214BE-E321-C845-9094-3C530F89F099}"/>
   </bookViews>
   <sheets>
     <sheet name="DigestionA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="456">
   <si>
     <t>Sample</t>
   </si>
@@ -412,12 +425,6 @@
     <t>Carousel</t>
   </si>
   <si>
-    <t>AcidVol_L</t>
-  </si>
-  <si>
-    <t>DilutionFactor</t>
-  </si>
-  <si>
     <t>9_1</t>
   </si>
   <si>
@@ -1382,6 +1389,18 @@
   </si>
   <si>
     <t>10_5</t>
+  </si>
+  <si>
+    <t>Vol_acid_L</t>
+  </si>
+  <si>
+    <t>Vol_acid_used_in_dilution_L</t>
+  </si>
+  <si>
+    <t>Vol_diluted_L</t>
+  </si>
+  <si>
+    <t>Duration_days</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1854,6 +1873,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1899,11 +1938,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2282,10 +2324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,7 +2336,7 @@
     <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2319,14 +2361,20 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2351,10 +2399,16 @@
         <v>0.01</v>
       </c>
       <c r="J2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L2" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2379,10 +2433,16 @@
         <v>0.01</v>
       </c>
       <c r="J3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2407,10 +2467,16 @@
         <v>0.01</v>
       </c>
       <c r="J4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2435,10 +2501,16 @@
         <v>0.01</v>
       </c>
       <c r="J5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2463,10 +2535,16 @@
         <v>0.01</v>
       </c>
       <c r="J6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2491,10 +2569,16 @@
         <v>0.01</v>
       </c>
       <c r="J7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2519,10 +2603,16 @@
         <v>0.01</v>
       </c>
       <c r="J8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2547,10 +2637,16 @@
         <v>0.01</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2575,10 +2671,16 @@
         <v>0.01</v>
       </c>
       <c r="J10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2603,10 +2705,16 @@
         <v>0.01</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2631,10 +2739,16 @@
         <v>0.01</v>
       </c>
       <c r="J12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2659,10 +2773,16 @@
         <v>0.01</v>
       </c>
       <c r="J13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2687,10 +2807,16 @@
         <v>0.01</v>
       </c>
       <c r="J14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2715,10 +2841,16 @@
         <v>0.01</v>
       </c>
       <c r="J15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2743,10 +2875,16 @@
         <v>0.01</v>
       </c>
       <c r="J16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2771,10 +2909,16 @@
         <v>0.01</v>
       </c>
       <c r="J17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2799,10 +2943,16 @@
         <v>0.01</v>
       </c>
       <c r="J18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2827,10 +2977,16 @@
         <v>0.01</v>
       </c>
       <c r="J19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2855,10 +3011,16 @@
         <v>0.01</v>
       </c>
       <c r="J20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2883,10 +3045,16 @@
         <v>0.01</v>
       </c>
       <c r="J21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2911,10 +3079,16 @@
         <v>0.01</v>
       </c>
       <c r="J22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2939,10 +3113,16 @@
         <v>0.01</v>
       </c>
       <c r="J23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2967,10 +3147,16 @@
         <v>0.01</v>
       </c>
       <c r="J24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2995,10 +3181,16 @@
         <v>0.01</v>
       </c>
       <c r="J25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -3023,10 +3215,16 @@
         <v>0.01</v>
       </c>
       <c r="J26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3051,10 +3249,16 @@
         <v>0.01</v>
       </c>
       <c r="J27" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -3079,10 +3283,16 @@
         <v>0.01</v>
       </c>
       <c r="J28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -3107,10 +3317,16 @@
         <v>0.01</v>
       </c>
       <c r="J29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -3135,10 +3351,16 @@
         <v>0.01</v>
       </c>
       <c r="J30" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3163,10 +3385,16 @@
         <v>0.01</v>
       </c>
       <c r="J31" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L31" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -3191,10 +3419,16 @@
         <v>0.01</v>
       </c>
       <c r="J32" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -3219,10 +3453,16 @@
         <v>0.01</v>
       </c>
       <c r="J33" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -3247,10 +3487,16 @@
         <v>0.01</v>
       </c>
       <c r="J34" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -3275,10 +3521,16 @@
         <v>0.01</v>
       </c>
       <c r="J35" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L35" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -3303,10 +3555,16 @@
         <v>0.01</v>
       </c>
       <c r="J36" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
@@ -3331,10 +3589,16 @@
         <v>0.01</v>
       </c>
       <c r="J37" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -3359,10 +3623,16 @@
         <v>0.01</v>
       </c>
       <c r="J38" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L38" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -3387,12 +3657,18 @@
         <v>0.01</v>
       </c>
       <c r="J39" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>126</v>
@@ -3411,12 +3687,16 @@
         <v>0.01</v>
       </c>
       <c r="J40" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
@@ -3433,10 +3713,14 @@
         <v>0.01</v>
       </c>
       <c r="J41" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -3461,10 +3745,16 @@
         <v>0.01</v>
       </c>
       <c r="J42" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -3489,632 +3779,1072 @@
         <v>0.01</v>
       </c>
       <c r="J43" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2">
         <v>43</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G44" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
         <v>44</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G45" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J45" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
         <v>45</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G46" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L46" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
         <v>46</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G47" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J47" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L47" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
         <v>47</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G48" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L48" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
         <v>48</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L49" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
         <v>49</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G50" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L50" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
         <v>50</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L51" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
         <v>51</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G52" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L52" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2">
         <v>52</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G53" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J53" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L53" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
         <v>53</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G54" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J54" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L54" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2">
         <v>54</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G55" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L55" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2">
         <v>55</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G56" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J56" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L56" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2">
         <v>56</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G57" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J57" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L57" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
         <v>57</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G58" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J58" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L58" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2">
         <v>58</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G59" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L59" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
         <v>59</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G60" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J60" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L60" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
         <v>60</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G61" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J61" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L61" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
         <v>61</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G62" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J62" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L62" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
         <v>62</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G63" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J63" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L63" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
         <v>63</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G64" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J64" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L64" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
         <v>64</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G65" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J65" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L65" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
         <v>65</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G66" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J66" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L66" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
         <v>66</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G67" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J67" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L67" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
         <v>67</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G68" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H68" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J68" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L68" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
         <v>68</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G69" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J69" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L69" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
         <v>69</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G70" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J70" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L70" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
         <v>70</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G71" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J71" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L71" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
         <v>71</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G72" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H72" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J72" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L72" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
         <v>72</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G73" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H73" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J73" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L73" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
         <v>73</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G74" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J74" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L74" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>126</v>
@@ -4129,12 +4859,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I75" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J75" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>127</v>
@@ -4146,18 +4884,26 @@
         <v>75</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I76" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J76" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -4170,18 +4916,28 @@
       <c r="H77" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I77" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J77" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L77" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4194,18 +4950,28 @@
       <c r="H78" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I78" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J78" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L78" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4218,18 +4984,28 @@
       <c r="H79" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I79" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J79" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L79" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4242,18 +5018,28 @@
       <c r="H80" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I80" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J80" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L80" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4266,18 +5052,28 @@
       <c r="H81" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I81" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J81" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L81" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -4290,18 +5086,28 @@
       <c r="H82" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I82" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J82" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L82" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4314,18 +5120,28 @@
       <c r="H83" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I83" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J83" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L83" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4338,18 +5154,28 @@
       <c r="H84" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I84" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J84" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L84" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -4362,18 +5188,28 @@
       <c r="H85" s="2">
         <v>0.01</v>
       </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I85" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J85" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L85" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4386,18 +5222,28 @@
       <c r="H86" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I86" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L86" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -4410,18 +5256,28 @@
       <c r="H87" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I87" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J87" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L87" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -4434,18 +5290,28 @@
       <c r="H88" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I88" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J88" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L88" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4458,18 +5324,28 @@
       <c r="H89" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I89" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L89" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4482,18 +5358,28 @@
       <c r="H90" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I90" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J90" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L90" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4506,18 +5392,28 @@
       <c r="H91" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I91" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L91" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4530,18 +5426,28 @@
       <c r="H92" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I92" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J92" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L92" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4554,18 +5460,28 @@
       <c r="H93" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I93" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J93" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L93" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4578,18 +5494,28 @@
       <c r="H94" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I94" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J94" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L94" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4602,18 +5528,28 @@
       <c r="H95" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I95" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J95" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L95" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4626,18 +5562,28 @@
       <c r="H96" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I96" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J96" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L96" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4650,18 +5596,28 @@
       <c r="H97" s="2">
         <v>0.02</v>
       </c>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I97" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J97" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L97" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4674,18 +5630,28 @@
       <c r="H98" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I98" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J98" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L98" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -4698,18 +5664,28 @@
       <c r="H99" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I99" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J99" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L99" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4722,18 +5698,28 @@
       <c r="H100" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I100" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J100" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L100" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4746,18 +5732,28 @@
       <c r="H101" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I101" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J101" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L101" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4770,18 +5766,28 @@
       <c r="H102" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I102" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J102" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L102" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4794,18 +5800,28 @@
       <c r="H103" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I103" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L103" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4818,18 +5834,28 @@
       <c r="H104" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I104" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J104" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L104" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4842,18 +5868,28 @@
       <c r="H105" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I105" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J105" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L105" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4866,18 +5902,28 @@
       <c r="H106" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I106" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J106" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L106" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4890,18 +5936,28 @@
       <c r="H107" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I107" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J107" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L107" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4914,18 +5970,28 @@
       <c r="H108" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I108" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L108" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4938,18 +6004,28 @@
       <c r="H109" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I109" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J109" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L109" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4962,18 +6038,28 @@
       <c r="H110" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I110" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J110" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L110" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4986,18 +6072,28 @@
       <c r="H111" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I111" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J111" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L111" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5010,18 +6106,28 @@
       <c r="H112" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I112" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J112" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L112" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5034,12 +6140,22 @@
       <c r="H113" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I113" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J113" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L113" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>126</v>
@@ -5054,12 +6170,22 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I114" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L114" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>127</v>
@@ -5072,18 +6198,28 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I115" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J115" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K115" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L115" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5096,18 +6232,28 @@
       <c r="H116" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I116" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J116" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K116" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L116" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5120,18 +6266,28 @@
       <c r="H117" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I117" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J117" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K117" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L117" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5144,18 +6300,28 @@
       <c r="H118" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I118" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J118" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L118" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5168,18 +6334,28 @@
       <c r="H119" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I119" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J119" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L119" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5192,18 +6368,28 @@
       <c r="H120" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I120" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J120" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K120" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L120" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5216,18 +6402,28 @@
       <c r="H121" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I121" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J121" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L121" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5240,18 +6436,28 @@
       <c r="H122" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I122" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J122" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L122" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5264,18 +6470,28 @@
       <c r="H123" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I123" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J123" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L123" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5288,18 +6504,28 @@
       <c r="H124" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I124" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J124" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K124" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L124" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5312,18 +6538,28 @@
       <c r="H125" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I125" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J125" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L125" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5336,18 +6572,28 @@
       <c r="H126" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I126" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J126" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K126" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L126" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5360,18 +6606,28 @@
       <c r="H127" s="2">
         <v>0.01</v>
       </c>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I127" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J127" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K127" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L127" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5384,18 +6640,28 @@
       <c r="H128" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I128" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J128" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L128" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5408,18 +6674,28 @@
       <c r="H129" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I129" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J129" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L129" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5432,18 +6708,28 @@
       <c r="H130" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I130" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J130" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L130" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5456,18 +6742,28 @@
       <c r="H131" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I131" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J131" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K131" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L131" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5480,18 +6776,28 @@
       <c r="H132" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I132" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J132" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K132" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L132" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5504,18 +6810,28 @@
       <c r="H133" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I133" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J133" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L133" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5528,18 +6844,28 @@
       <c r="H134" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I134" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J134" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K134" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L134" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5552,12 +6878,22 @@
       <c r="H135" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I135" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J135" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K135" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L135" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>126</v>
@@ -5572,12 +6908,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I136" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J136" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K136" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>127</v>
@@ -5590,18 +6933,25 @@
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I137" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J137" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5614,18 +6964,28 @@
       <c r="H138" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I138" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J138" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L138" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5638,18 +6998,28 @@
       <c r="H139" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I139" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J139" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L139" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5662,18 +7032,28 @@
       <c r="H140" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I140" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J140" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K140" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L140" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5686,18 +7066,28 @@
       <c r="H141" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I141" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J141" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K141" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L141" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5710,18 +7100,28 @@
       <c r="H142" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I142" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J142" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L142" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5734,18 +7134,28 @@
       <c r="H143" s="2">
         <v>0.01</v>
       </c>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I143" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J143" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K143" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L143" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5758,18 +7168,28 @@
       <c r="H144" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I144" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J144" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L144" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5782,18 +7202,28 @@
       <c r="H145" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I145" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J145" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L145" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5806,18 +7236,28 @@
       <c r="H146" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I146" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J146" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L146" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5830,18 +7270,28 @@
       <c r="H147" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I147" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J147" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L147" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5854,18 +7304,28 @@
       <c r="H148" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I148" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J148" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K148" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L148" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5878,18 +7338,28 @@
       <c r="H149" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I149" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J149" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L149" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5902,18 +7372,28 @@
       <c r="H150" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I150" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J150" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L150" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5926,18 +7406,28 @@
       <c r="H151" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I151" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J151" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K151" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L151" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5950,18 +7440,28 @@
       <c r="H152" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I152" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J152" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K152" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L152" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5974,12 +7474,22 @@
       <c r="H153" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I153" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J153" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K153" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L153" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>126</v>
@@ -5994,12 +7504,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I154" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J154" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K154" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>127</v>
@@ -6012,8 +7530,16 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="I155" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J155" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K155" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L155" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/2024_AcidDigestion_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/2024_AcidDigestion_EDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/Digestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B00ADB-4C81-824A-959A-1FE0472077CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A76A90-586A-7948-8920-F89F497CB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{434214BE-E321-C845-9094-3C530F89F099}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{434214BE-E321-C845-9094-3C530F89F099}"/>
   </bookViews>
   <sheets>
     <sheet name="DigestionA" sheetId="1" r:id="rId1"/>
@@ -683,9 +683,6 @@
     <t>F_sed_8m_R2_F1_05Aug24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_05Augl24</t>
-  </si>
-  <si>
     <t>B_sed_4m_R1_F1_05Aug24</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>B_sed_4m_R1_F1_19Aug24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_19Augl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_19Aug24</t>
   </si>
   <si>
@@ -836,9 +830,6 @@
     <t>B_sed_4m_R1_F1_02Sep24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_02Sepl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_02Sep24</t>
   </si>
   <si>
@@ -920,9 +911,6 @@
     <t>B_sed_4m_R1_F1_23Sep24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_23Sepl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_23Sep24</t>
   </si>
   <si>
@@ -992,9 +980,6 @@
     <t>B_sed_4m_R1_F1_07Oct24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_07Octl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_07Oct24</t>
   </si>
   <si>
@@ -1070,9 +1055,6 @@
     <t>B_sed_4m_R1_F1_21Oct24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_21Octl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_21Oct24</t>
   </si>
   <si>
@@ -1154,9 +1136,6 @@
     <t>B_sed_4m_R1_F1_04Nov24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_04Novl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_04Nov24</t>
   </si>
   <si>
@@ -1214,9 +1193,6 @@
     <t>B_sed_4m_R1_F1_19Nov24</t>
   </si>
   <si>
-    <t>B_sed_4m_R2_F1_19Novl24</t>
-  </si>
-  <si>
     <t>B_sed_8m_R1_F1_19Nov24</t>
   </si>
   <si>
@@ -1401,6 +1377,30 @@
   </si>
   <si>
     <t>Duration_days</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_05Aug24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_19Aug24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_02Sep24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_23Sep24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_07Oct24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_21Oct24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_04Nov24</t>
+  </si>
+  <si>
+    <t>B_sed_4m_R2_F1_19Nov24</t>
   </si>
 </sst>
 </file>
@@ -1938,14 +1938,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2326,8 +2325,8 @@
   </sheetPr>
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,16 +2361,16 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2404,7 +2403,7 @@
       <c r="K2" s="2">
         <v>0.01</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2438,7 +2437,7 @@
       <c r="K3" s="2">
         <v>0.01</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2472,7 +2471,7 @@
       <c r="K4" s="2">
         <v>0.01</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2506,7 +2505,7 @@
       <c r="K5" s="2">
         <v>0.01</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2540,7 +2539,7 @@
       <c r="K6" s="2">
         <v>0.01</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2574,7 +2573,7 @@
       <c r="K7" s="2">
         <v>0.01</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2608,7 +2607,7 @@
       <c r="K8" s="2">
         <v>0.01</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2642,7 +2641,7 @@
       <c r="K9" s="2">
         <v>0.01</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2676,7 +2675,7 @@
       <c r="K10" s="2">
         <v>0.01</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2710,7 +2709,7 @@
       <c r="K11" s="2">
         <v>0.01</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2744,7 +2743,7 @@
       <c r="K12" s="2">
         <v>0.01</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2778,7 +2777,7 @@
       <c r="K13" s="2">
         <v>0.01</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2812,7 +2811,7 @@
       <c r="K14" s="2">
         <v>0.01</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2846,7 +2845,7 @@
       <c r="K15" s="2">
         <v>0.01</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2880,7 +2879,7 @@
       <c r="K16" s="2">
         <v>0.01</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2914,7 +2913,7 @@
       <c r="K17" s="2">
         <v>0.01</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2948,7 +2947,7 @@
       <c r="K18" s="2">
         <v>0.01</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2982,7 +2981,7 @@
       <c r="K19" s="2">
         <v>0.01</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3016,7 +3015,7 @@
       <c r="K20" s="2">
         <v>0.01</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3050,7 +3049,7 @@
       <c r="K21" s="2">
         <v>0.01</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3084,7 +3083,7 @@
       <c r="K22" s="2">
         <v>0.01</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3118,7 +3117,7 @@
       <c r="K23" s="2">
         <v>0.01</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3152,7 +3151,7 @@
       <c r="K24" s="2">
         <v>0.01</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3186,7 +3185,7 @@
       <c r="K25" s="2">
         <v>0.01</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3220,7 +3219,7 @@
       <c r="K26" s="2">
         <v>0.01</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3254,7 +3253,7 @@
       <c r="K27" s="2">
         <v>0.01</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3288,7 +3287,7 @@
       <c r="K28" s="2">
         <v>0.01</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3322,7 +3321,7 @@
       <c r="K29" s="2">
         <v>0.01</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3356,7 +3355,7 @@
       <c r="K30" s="2">
         <v>0.01</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3390,7 +3389,7 @@
       <c r="K31" s="2">
         <v>0.01</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3424,7 +3423,7 @@
       <c r="K32" s="2">
         <v>0.01</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3458,7 +3457,7 @@
       <c r="K33" s="2">
         <v>0.01</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3492,7 +3491,7 @@
       <c r="K34" s="2">
         <v>0.01</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3526,7 +3525,7 @@
       <c r="K35" s="2">
         <v>0.01</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3560,7 +3559,7 @@
       <c r="K36" s="2">
         <v>0.01</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3594,7 +3593,7 @@
       <c r="K37" s="2">
         <v>0.01</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3628,7 +3627,7 @@
       <c r="K38" s="2">
         <v>0.01</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3662,7 +3661,7 @@
       <c r="K39" s="2">
         <v>0.01</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3692,7 +3691,7 @@
       <c r="K40" s="2">
         <v>0.01</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -3718,7 +3717,7 @@
       <c r="K41" s="2">
         <v>0.01</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -3750,7 +3749,7 @@
       <c r="K42" s="2">
         <v>0.01</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3784,7 +3783,7 @@
       <c r="K43" s="2">
         <v>0.01</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3818,7 +3817,7 @@
       <c r="K44" s="2">
         <v>0.01</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3852,7 +3851,7 @@
       <c r="K45" s="2">
         <v>0.01</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3886,7 +3885,7 @@
       <c r="K46" s="2">
         <v>0.01</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3920,7 +3919,7 @@
       <c r="K47" s="2">
         <v>0.01</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3954,7 +3953,7 @@
       <c r="K48" s="2">
         <v>0.01</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3988,7 +3987,7 @@
       <c r="K49" s="2">
         <v>0.01</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4022,7 +4021,7 @@
       <c r="K50" s="2">
         <v>0.01</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4056,7 +4055,7 @@
       <c r="K51" s="2">
         <v>0.01</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4090,7 +4089,7 @@
       <c r="K52" s="2">
         <v>0.01</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4124,7 +4123,7 @@
       <c r="K53" s="2">
         <v>0.01</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4158,7 +4157,7 @@
       <c r="K54" s="2">
         <v>0.01</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4192,7 +4191,7 @@
       <c r="K55" s="2">
         <v>0.01</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4226,7 +4225,7 @@
       <c r="K56" s="2">
         <v>0.01</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4260,7 +4259,7 @@
       <c r="K57" s="2">
         <v>0.01</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4294,7 +4293,7 @@
       <c r="K58" s="2">
         <v>0.01</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4328,7 +4327,7 @@
       <c r="K59" s="2">
         <v>0.01</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4362,7 +4361,7 @@
       <c r="K60" s="2">
         <v>0.01</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4396,7 +4395,7 @@
       <c r="K61" s="2">
         <v>0.01</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4430,7 +4429,7 @@
       <c r="K62" s="2">
         <v>0.01</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4464,7 +4463,7 @@
       <c r="K63" s="2">
         <v>0.01</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4498,7 +4497,7 @@
       <c r="K64" s="2">
         <v>0.01</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4532,7 +4531,7 @@
       <c r="K65" s="2">
         <v>0.01</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4566,7 +4565,7 @@
       <c r="K66" s="2">
         <v>0.01</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4600,7 +4599,7 @@
       <c r="K67" s="2">
         <v>0.01</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4612,7 +4611,7 @@
         <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4634,7 +4633,7 @@
       <c r="K68" s="2">
         <v>0.01</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4646,7 +4645,7 @@
         <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4668,7 +4667,7 @@
       <c r="K69" s="2">
         <v>0.01</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4680,7 +4679,7 @@
         <v>214</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4702,7 +4701,7 @@
       <c r="K70" s="2">
         <v>0.01</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4714,7 +4713,7 @@
         <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -4736,7 +4735,7 @@
       <c r="K71" s="2">
         <v>0.01</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4745,10 +4744,10 @@
         <v>208</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -4770,7 +4769,7 @@
       <c r="K72" s="2">
         <v>0.01</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4779,10 +4778,10 @@
         <v>209</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -4804,7 +4803,7 @@
       <c r="K73" s="2">
         <v>0.01</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4813,10 +4812,10 @@
         <v>210</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4838,13 +4837,13 @@
       <c r="K74" s="2">
         <v>0.01</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>126</v>
@@ -4868,11 +4867,11 @@
       <c r="K75" s="2">
         <v>0.01</v>
       </c>
-      <c r="L75" s="5"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>127</v>
@@ -4893,17 +4892,17 @@
       <c r="K76" s="2">
         <v>0.01</v>
       </c>
-      <c r="L76" s="5"/>
+      <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -4925,19 +4924,19 @@
       <c r="K77" s="2">
         <v>0.01</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4959,19 +4958,19 @@
       <c r="K78" s="2">
         <v>0.01</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4993,19 +4992,19 @@
       <c r="K79" s="2">
         <v>0.01</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5027,19 +5026,19 @@
       <c r="K80" s="2">
         <v>0.01</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5061,19 +5060,19 @@
       <c r="K81" s="2">
         <v>0.01</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5095,19 +5094,19 @@
       <c r="K82" s="2">
         <v>0.01</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5129,19 +5128,19 @@
       <c r="K83" s="2">
         <v>0.01</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5163,19 +5162,19 @@
       <c r="K84" s="2">
         <v>0.01</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5197,19 +5196,19 @@
       <c r="K85" s="2">
         <v>0.01</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5231,19 +5230,19 @@
       <c r="K86" s="2">
         <v>0.01</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5265,19 +5264,19 @@
       <c r="K87" s="2">
         <v>0.01</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5299,19 +5298,19 @@
       <c r="K88" s="2">
         <v>0.01</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5333,19 +5332,19 @@
       <c r="K89" s="2">
         <v>0.01</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5367,19 +5366,19 @@
       <c r="K90" s="2">
         <v>0.01</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5401,19 +5400,19 @@
       <c r="K91" s="2">
         <v>0.01</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5435,19 +5434,19 @@
       <c r="K92" s="2">
         <v>0.01</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5469,19 +5468,19 @@
       <c r="K93" s="2">
         <v>0.01</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5503,19 +5502,19 @@
       <c r="K94" s="2">
         <v>0.01</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5537,19 +5536,19 @@
       <c r="K95" s="2">
         <v>0.01</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5571,19 +5570,19 @@
       <c r="K96" s="2">
         <v>0.01</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5605,19 +5604,19 @@
       <c r="K97" s="2">
         <v>0.01</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5639,19 +5638,19 @@
       <c r="K98" s="2">
         <v>0.01</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5673,19 +5672,19 @@
       <c r="K99" s="2">
         <v>0.01</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5707,19 +5706,19 @@
       <c r="K100" s="2">
         <v>0.01</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5741,19 +5740,19 @@
       <c r="K101" s="2">
         <v>0.01</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5775,19 +5774,19 @@
       <c r="K102" s="2">
         <v>0.01</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5809,19 +5808,19 @@
       <c r="K103" s="2">
         <v>0.01</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5843,19 +5842,19 @@
       <c r="K104" s="2">
         <v>0.01</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5877,19 +5876,19 @@
       <c r="K105" s="2">
         <v>0.01</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5911,19 +5910,19 @@
       <c r="K106" s="2">
         <v>0.01</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>319</v>
+        <v>452</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5945,19 +5944,19 @@
       <c r="K107" s="2">
         <v>0.01</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5979,19 +5978,19 @@
       <c r="K108" s="2">
         <v>0.01</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6013,19 +6012,19 @@
       <c r="K109" s="2">
         <v>0.01</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6047,19 +6046,19 @@
       <c r="K110" s="2">
         <v>0.01</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6081,19 +6080,19 @@
       <c r="K111" s="2">
         <v>0.01</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6115,19 +6114,19 @@
       <c r="K112" s="2">
         <v>0.01</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6149,13 +6148,13 @@
       <c r="K113" s="2">
         <v>0.01</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L113" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>126</v>
@@ -6179,13 +6178,13 @@
       <c r="K114" s="2">
         <v>0.01</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>127</v>
@@ -6207,19 +6206,19 @@
       <c r="K115" s="2">
         <v>0.01</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6241,19 +6240,19 @@
       <c r="K116" s="2">
         <v>0.01</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6275,19 +6274,19 @@
       <c r="K117" s="2">
         <v>0.01</v>
       </c>
-      <c r="L117" s="5">
+      <c r="L117" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6309,19 +6308,19 @@
       <c r="K118" s="2">
         <v>0.01</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6343,19 +6342,19 @@
       <c r="K119" s="2">
         <v>0.01</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6377,19 +6376,19 @@
       <c r="K120" s="2">
         <v>0.01</v>
       </c>
-      <c r="L120" s="5">
+      <c r="L120" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6411,19 +6410,19 @@
       <c r="K121" s="2">
         <v>0.01</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L121" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6445,19 +6444,19 @@
       <c r="K122" s="2">
         <v>0.01</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L122" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6479,19 +6478,19 @@
       <c r="K123" s="2">
         <v>0.01</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6513,19 +6512,19 @@
       <c r="K124" s="2">
         <v>0.01</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6547,19 +6546,19 @@
       <c r="K125" s="2">
         <v>0.01</v>
       </c>
-      <c r="L125" s="5">
+      <c r="L125" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6581,19 +6580,19 @@
       <c r="K126" s="2">
         <v>0.01</v>
       </c>
-      <c r="L126" s="5">
+      <c r="L126" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6615,19 +6614,19 @@
       <c r="K127" s="2">
         <v>0.01</v>
       </c>
-      <c r="L127" s="5">
+      <c r="L127" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6649,19 +6648,19 @@
       <c r="K128" s="2">
         <v>0.01</v>
       </c>
-      <c r="L128" s="5">
+      <c r="L128" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6683,19 +6682,19 @@
       <c r="K129" s="2">
         <v>0.01</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L129" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6717,19 +6716,19 @@
       <c r="K130" s="2">
         <v>0.01</v>
       </c>
-      <c r="L130" s="5">
+      <c r="L130" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6751,19 +6750,19 @@
       <c r="K131" s="2">
         <v>0.01</v>
       </c>
-      <c r="L131" s="5">
+      <c r="L131" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6785,19 +6784,19 @@
       <c r="K132" s="2">
         <v>0.01</v>
       </c>
-      <c r="L132" s="5">
+      <c r="L132" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6819,19 +6818,19 @@
       <c r="K133" s="2">
         <v>0.01</v>
       </c>
-      <c r="L133" s="5">
+      <c r="L133" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6853,19 +6852,19 @@
       <c r="K134" s="2">
         <v>0.01</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6887,13 +6886,13 @@
       <c r="K135" s="2">
         <v>0.01</v>
       </c>
-      <c r="L135" s="5">
+      <c r="L135" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>126</v>
@@ -6920,7 +6919,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>127</v>
@@ -6945,13 +6944,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6973,19 +6972,19 @@
       <c r="K138" s="2">
         <v>0.01</v>
       </c>
-      <c r="L138" s="5">
+      <c r="L138" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7007,19 +7006,19 @@
       <c r="K139" s="2">
         <v>0.01</v>
       </c>
-      <c r="L139" s="6">
+      <c r="L139" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7041,19 +7040,19 @@
       <c r="K140" s="2">
         <v>0.01</v>
       </c>
-      <c r="L140" s="6">
+      <c r="L140" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7075,19 +7074,19 @@
       <c r="K141" s="2">
         <v>0.01</v>
       </c>
-      <c r="L141" s="6">
+      <c r="L141" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7109,19 +7108,19 @@
       <c r="K142" s="2">
         <v>0.01</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -7143,19 +7142,19 @@
       <c r="K143" s="2">
         <v>0.01</v>
       </c>
-      <c r="L143" s="6">
+      <c r="L143" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -7177,19 +7176,19 @@
       <c r="K144" s="2">
         <v>0.01</v>
       </c>
-      <c r="L144" s="6">
+      <c r="L144" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -7211,19 +7210,19 @@
       <c r="K145" s="2">
         <v>0.01</v>
       </c>
-      <c r="L145" s="6">
+      <c r="L145" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -7245,19 +7244,19 @@
       <c r="K146" s="2">
         <v>0.01</v>
       </c>
-      <c r="L146" s="6">
+      <c r="L146" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -7279,19 +7278,19 @@
       <c r="K147" s="2">
         <v>0.01</v>
       </c>
-      <c r="L147" s="6">
+      <c r="L147" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -7313,19 +7312,19 @@
       <c r="K148" s="2">
         <v>0.01</v>
       </c>
-      <c r="L148" s="6">
+      <c r="L148" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -7347,19 +7346,19 @@
       <c r="K149" s="2">
         <v>0.01</v>
       </c>
-      <c r="L149" s="6">
+      <c r="L149" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -7381,19 +7380,19 @@
       <c r="K150" s="2">
         <v>0.01</v>
       </c>
-      <c r="L150" s="6">
+      <c r="L150" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -7415,19 +7414,19 @@
       <c r="K151" s="2">
         <v>0.01</v>
       </c>
-      <c r="L151" s="6">
+      <c r="L151" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7449,19 +7448,19 @@
       <c r="K152" s="2">
         <v>0.01</v>
       </c>
-      <c r="L152" s="6">
+      <c r="L152" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -7483,13 +7482,13 @@
       <c r="K153" s="2">
         <v>0.01</v>
       </c>
-      <c r="L153" s="6">
+      <c r="L153" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>126</v>
@@ -7513,11 +7512,11 @@
       <c r="K154" s="2">
         <v>0.01</v>
       </c>
-      <c r="L154" s="6"/>
+      <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>127</v>
@@ -7539,7 +7538,7 @@
       <c r="K155" s="2">
         <v>0.01</v>
       </c>
-      <c r="L155" s="6"/>
+      <c r="L155" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
